--- a/com.hybridFaremwork/resources/User_Details_HY.xlsx
+++ b/com.hybridFaremwork/resources/User_Details_HY.xlsx
@@ -3,42 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xamah\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A05281-8E7B-4BCD-9D5A-C6AEAA2E3C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F8C57EE2-8278-448A-903C-0E7B7018CD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{252BE573-A145-4457-BBF8-59DA94506695}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{252BE573-A145-4457-BBF8-59DA94506695}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Cred" sheetId="2" r:id="rId1"/>
     <sheet name="Job_Title" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:P14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Username</t>
   </si>
@@ -83,6 +68,9 @@
   </si>
   <si>
     <t>This is the Semi-Contract Role.</t>
+  </si>
+  <si>
+    <t>Job Titles</t>
   </si>
 </sst>
 </file>
@@ -479,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0440C9-204F-4F8F-AFC0-14FA84E34037}">
   <dimension ref="A3:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -510,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -523,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3565D6-1A66-4040-B722-CBF5A77213BA}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
